--- a/original/5-6_業務要件定義/5_業務要件定義プロセスガイド/業務要件定義プロセス一覧.xlsx
+++ b/original/5-6_業務要件定義/5_業務要件定義プロセスガイド/業務要件定義プロセス一覧.xlsx
@@ -15,7 +15,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$AI$40</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">業務要件定義プロセス一覧!$3:$3</definedName>
   </definedNames>
-  <calcPr calcId="145621" calcMode="manual"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -2109,16 +2109,6 @@
     <phoneticPr fontId="11"/>
   </si>
   <si>
-    <t>TIS株式会社</t>
-    <rPh sb="1" eb="3">
-      <t>カブシキ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>カイシャ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
     <t xml:space="preserve">この 作品 は </t>
     <phoneticPr fontId="17"/>
   </si>
@@ -2545,6 +2535,13 @@
     </rPh>
     <rPh sb="72" eb="74">
       <t>ヨウキュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>要件定義フレームワーク©2018 TIS INC. クリエイティブ・コモンズ・ライセンス（表示-継承 4.0 国際）</t>
+    <rPh sb="0" eb="1">
+      <t>ヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2910,15 +2907,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4528,9 +4525,7 @@
       <c r="O32" s="22"/>
       <c r="P32" s="22"/>
       <c r="Q32" s="22"/>
-      <c r="R32" s="32" t="s">
-        <v>171</v>
-      </c>
+      <c r="R32" s="32"/>
       <c r="S32" s="22"/>
       <c r="T32" s="22"/>
       <c r="U32" s="22"/>
@@ -4767,12 +4762,12 @@
     <row r="39" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="22"/>
       <c r="B39" s="22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C39" s="22"/>
       <c r="D39" s="22"/>
       <c r="E39" s="39" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F39" s="22"/>
       <c r="G39" s="22"/>
@@ -4787,7 +4782,7 @@
       <c r="P39" s="36"/>
       <c r="Q39" s="37"/>
       <c r="R39" s="37" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="S39" s="36"/>
       <c r="T39" s="22"/>
@@ -4806,7 +4801,11 @@
       <c r="AG39" s="22"/>
       <c r="AH39" s="22"/>
     </row>
-    <row r="40" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B40" s="25" t="s">
+        <v>189</v>
+      </c>
+    </row>
     <row r="41" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="42" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="43" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5285,7 +5284,7 @@
     <hyperlink ref="E39" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" verticalDpi="0" r:id="rId2"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId2"/>
   <drawing r:id="rId3"/>
 </worksheet>
 </file>
@@ -5319,7 +5318,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A1" s="40" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -5373,16 +5372,16 @@
         <f>ROW()-3</f>
         <v>1</v>
       </c>
-      <c r="C4" s="45" t="s">
+      <c r="C4" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="46" t="s">
+      <c r="D4" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="45" t="s">
+      <c r="E4" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="46" t="s">
+      <c r="F4" s="45" t="s">
         <v>16</v>
       </c>
       <c r="G4" s="20" t="s">
@@ -5401,7 +5400,7 @@
         <v>164</v>
       </c>
       <c r="L4" s="15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="M4" s="7"/>
       <c r="N4" s="41"/>
@@ -5413,9 +5412,9 @@
         <v>2</v>
       </c>
       <c r="C5" s="42"/>
-      <c r="D5" s="43"/>
+      <c r="D5" s="46"/>
       <c r="E5" s="42"/>
-      <c r="F5" s="43"/>
+      <c r="F5" s="46"/>
       <c r="G5" s="18" t="s">
         <v>21</v>
       </c>
@@ -5443,9 +5442,9 @@
         <v>3</v>
       </c>
       <c r="C6" s="42"/>
-      <c r="D6" s="43"/>
+      <c r="D6" s="46"/>
       <c r="E6" s="42"/>
-      <c r="F6" s="43"/>
+      <c r="F6" s="46"/>
       <c r="G6" s="18" t="s">
         <v>26</v>
       </c>
@@ -5453,7 +5452,7 @@
         <v>27</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J6" s="11" t="s">
         <v>20</v>
@@ -5475,7 +5474,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="42"/>
-      <c r="D7" s="43"/>
+      <c r="D7" s="46"/>
       <c r="E7" s="18" t="s">
         <v>31</v>
       </c>
@@ -5489,7 +5488,7 @@
         <v>32</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J7" s="11" t="s">
         <v>34</v>
@@ -5511,11 +5510,11 @@
         <v>5</v>
       </c>
       <c r="C8" s="42"/>
-      <c r="D8" s="43"/>
+      <c r="D8" s="46"/>
       <c r="E8" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="44" t="s">
+      <c r="F8" s="43" t="s">
         <v>37</v>
       </c>
       <c r="G8" s="18" t="s">
@@ -5525,7 +5524,7 @@
         <v>39</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J8" s="11" t="s">
         <v>165</v>
@@ -5547,9 +5546,9 @@
         <v>6</v>
       </c>
       <c r="C9" s="42"/>
-      <c r="D9" s="43"/>
+      <c r="D9" s="46"/>
       <c r="E9" s="42"/>
-      <c r="F9" s="44"/>
+      <c r="F9" s="43"/>
       <c r="G9" s="18" t="s">
         <v>41</v>
       </c>
@@ -5557,7 +5556,7 @@
         <v>42</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J9" s="11" t="s">
         <v>3</v>
@@ -5579,9 +5578,9 @@
         <v>7</v>
       </c>
       <c r="C10" s="42"/>
-      <c r="D10" s="43"/>
+      <c r="D10" s="46"/>
       <c r="E10" s="42"/>
-      <c r="F10" s="44"/>
+      <c r="F10" s="43"/>
       <c r="G10" s="18" t="s">
         <v>45</v>
       </c>
@@ -5611,7 +5610,7 @@
         <v>8</v>
       </c>
       <c r="C11" s="42"/>
-      <c r="D11" s="43"/>
+      <c r="D11" s="46"/>
       <c r="E11" s="18" t="s">
         <v>50</v>
       </c>
@@ -5625,7 +5624,7 @@
         <v>51</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J11" s="11" t="s">
         <v>48</v>
@@ -5647,11 +5646,11 @@
         <v>9</v>
       </c>
       <c r="C12" s="42"/>
-      <c r="D12" s="43"/>
+      <c r="D12" s="46"/>
       <c r="E12" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="F12" s="44" t="s">
+      <c r="F12" s="43" t="s">
         <v>56</v>
       </c>
       <c r="G12" s="18" t="s">
@@ -5683,9 +5682,9 @@
         <v>10</v>
       </c>
       <c r="C13" s="42"/>
-      <c r="D13" s="43"/>
+      <c r="D13" s="46"/>
       <c r="E13" s="42"/>
-      <c r="F13" s="44"/>
+      <c r="F13" s="43"/>
       <c r="G13" s="18" t="s">
         <v>63</v>
       </c>
@@ -5717,13 +5716,13 @@
       <c r="C14" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="D14" s="43" t="s">
+      <c r="D14" s="46" t="s">
         <v>70</v>
       </c>
       <c r="E14" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="F14" s="44" t="s">
+      <c r="F14" s="43" t="s">
         <v>72</v>
       </c>
       <c r="G14" s="18" t="s">
@@ -5755,9 +5754,9 @@
         <v>12</v>
       </c>
       <c r="C15" s="42"/>
-      <c r="D15" s="43"/>
+      <c r="D15" s="46"/>
       <c r="E15" s="42"/>
-      <c r="F15" s="44"/>
+      <c r="F15" s="43"/>
       <c r="G15" s="18" t="s">
         <v>79</v>
       </c>
@@ -5787,11 +5786,11 @@
         <v>13</v>
       </c>
       <c r="C16" s="42"/>
-      <c r="D16" s="43"/>
+      <c r="D16" s="46"/>
       <c r="E16" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="F16" s="44" t="s">
+      <c r="F16" s="43" t="s">
         <v>85</v>
       </c>
       <c r="G16" s="18" t="s">
@@ -5821,9 +5820,9 @@
         <v>14</v>
       </c>
       <c r="C17" s="42"/>
-      <c r="D17" s="43"/>
+      <c r="D17" s="46"/>
       <c r="E17" s="42"/>
-      <c r="F17" s="44"/>
+      <c r="F17" s="43"/>
       <c r="G17" s="18" t="s">
         <v>91</v>
       </c>
@@ -5840,7 +5839,7 @@
         <v>95</v>
       </c>
       <c r="L17" s="11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="M17" s="7"/>
     </row>
@@ -5851,9 +5850,9 @@
         <v>15</v>
       </c>
       <c r="C18" s="42"/>
-      <c r="D18" s="43"/>
+      <c r="D18" s="46"/>
       <c r="E18" s="42"/>
-      <c r="F18" s="44"/>
+      <c r="F18" s="43"/>
       <c r="G18" s="18" t="s">
         <v>96</v>
       </c>
@@ -5881,9 +5880,9 @@
         <v>16</v>
       </c>
       <c r="C19" s="42"/>
-      <c r="D19" s="43"/>
+      <c r="D19" s="46"/>
       <c r="E19" s="42"/>
-      <c r="F19" s="44"/>
+      <c r="F19" s="43"/>
       <c r="G19" s="18" t="s">
         <v>101</v>
       </c>
@@ -5913,9 +5912,9 @@
         <v>17</v>
       </c>
       <c r="C20" s="42"/>
-      <c r="D20" s="43"/>
+      <c r="D20" s="46"/>
       <c r="E20" s="42"/>
-      <c r="F20" s="44"/>
+      <c r="F20" s="43"/>
       <c r="G20" s="18" t="s">
         <v>106</v>
       </c>
@@ -5945,21 +5944,21 @@
         <v>18</v>
       </c>
       <c r="C21" s="42"/>
-      <c r="D21" s="43"/>
+      <c r="D21" s="46"/>
       <c r="E21" s="42" t="s">
         <v>111</v>
       </c>
-      <c r="F21" s="44" t="s">
-        <v>183</v>
+      <c r="F21" s="43" t="s">
+        <v>182</v>
       </c>
       <c r="G21" s="18" t="s">
         <v>112</v>
       </c>
       <c r="H21" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="I21" s="11" t="s">
         <v>184</v>
-      </c>
-      <c r="I21" s="11" t="s">
-        <v>185</v>
       </c>
       <c r="J21" s="11" t="s">
         <v>113</v>
@@ -5981,17 +5980,17 @@
         <v>19</v>
       </c>
       <c r="C22" s="42"/>
-      <c r="D22" s="43"/>
+      <c r="D22" s="46"/>
       <c r="E22" s="42"/>
-      <c r="F22" s="44"/>
+      <c r="F22" s="43"/>
       <c r="G22" s="18" t="s">
         <v>116</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I22" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J22" s="11" t="s">
         <v>117</v>
@@ -6013,21 +6012,21 @@
         <v>20</v>
       </c>
       <c r="C23" s="42"/>
-      <c r="D23" s="43"/>
+      <c r="D23" s="46"/>
       <c r="E23" s="18" t="s">
         <v>119</v>
       </c>
       <c r="F23" s="19" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G23" s="18" t="s">
         <v>120</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J23" s="11" t="s">
         <v>121</v>
@@ -6091,13 +6090,13 @@
       <c r="C25" s="42" t="s">
         <v>131</v>
       </c>
-      <c r="D25" s="43" t="s">
+      <c r="D25" s="46" t="s">
         <v>132</v>
       </c>
       <c r="E25" s="42" t="s">
         <v>133</v>
       </c>
-      <c r="F25" s="44" t="s">
+      <c r="F25" s="43" t="s">
         <v>132</v>
       </c>
       <c r="G25" s="18" t="s">
@@ -6129,9 +6128,9 @@
         <v>23</v>
       </c>
       <c r="C26" s="42"/>
-      <c r="D26" s="43"/>
+      <c r="D26" s="46"/>
       <c r="E26" s="42"/>
-      <c r="F26" s="44"/>
+      <c r="F26" s="43"/>
       <c r="G26" s="18" t="s">
         <v>139</v>
       </c>
@@ -6161,9 +6160,9 @@
         <v>24</v>
       </c>
       <c r="C27" s="42"/>
-      <c r="D27" s="43"/>
+      <c r="D27" s="46"/>
       <c r="E27" s="42"/>
-      <c r="F27" s="44"/>
+      <c r="F27" s="43"/>
       <c r="G27" s="18" t="s">
         <v>145</v>
       </c>
@@ -6171,7 +6170,7 @@
         <v>146</v>
       </c>
       <c r="I27" s="11" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J27" s="11" t="s">
         <v>166</v>
@@ -6193,7 +6192,7 @@
         <v>25</v>
       </c>
       <c r="C28" s="42"/>
-      <c r="D28" s="43"/>
+      <c r="D28" s="46"/>
       <c r="E28" s="18" t="s">
         <v>148</v>
       </c>
@@ -6231,13 +6230,13 @@
       <c r="C29" s="42" t="s">
         <v>153</v>
       </c>
-      <c r="D29" s="43" t="s">
+      <c r="D29" s="46" t="s">
         <v>154</v>
       </c>
       <c r="E29" s="42" t="s">
         <v>155</v>
       </c>
-      <c r="F29" s="44" t="s">
+      <c r="F29" s="43" t="s">
         <v>156</v>
       </c>
       <c r="G29" s="18" t="s">
@@ -6269,9 +6268,9 @@
         <v>27</v>
       </c>
       <c r="C30" s="42"/>
-      <c r="D30" s="43"/>
+      <c r="D30" s="46"/>
       <c r="E30" s="42"/>
-      <c r="F30" s="44"/>
+      <c r="F30" s="43"/>
       <c r="G30" s="18" t="s">
         <v>162</v>
       </c>
@@ -6322,14 +6321,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="C4:C13"/>
-    <mergeCell ref="D4:D13"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
     <mergeCell ref="C29:C30"/>
     <mergeCell ref="D29:D30"/>
     <mergeCell ref="E29:E30"/>
@@ -6346,10 +6337,18 @@
     <mergeCell ref="F14:F15"/>
     <mergeCell ref="E16:E20"/>
     <mergeCell ref="F16:F20"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="C4:C13"/>
+    <mergeCell ref="D4:D13"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="8" scale="79" fitToHeight="0" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="8" scale="80" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C－&amp;P－</oddFooter>
   </headerFooter>
